--- a/backend/uploads/Usuarios.xlsx
+++ b/backend/uploads/Usuarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">IDUsuario</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t xml:space="preserve">Valoracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biografía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen</t>
   </si>
   <si>
     <t xml:space="preserve">101</t>
@@ -185,8 +194,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,130 +396,139 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>1234</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>4321</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>25879</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>55854</v>
       </c>
     </row>
